--- a/hw/Bill of Materials.xlsx
+++ b/hw/Bill of Materials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Description</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>http://www.ebay.es/itm/DC-200mA-Ampmeter-Analog-Current-Panel-Meter-Ammeter-0-200mA-/271210797555?pt=LH_DefaultDomain_0&amp;hash=item3f256c59f3&amp;_uhb=1</t>
+  </si>
+  <si>
+    <t>http://www.ebay.es/itm/2-pcs-Male-5-5-x-2-1mm-DC-Power-Connector-Adapter-Jack-Plug-for-CCTV-Camera-/351092210138?pt=LH_DefaultDomain_0&amp;hash=item51beb9f9da&amp;_uhb=1</t>
+  </si>
+  <si>
+    <t>Jack Barrel to screw adapter</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,93 +626,111 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <f>B8/C8</f>
+        <v>0.53</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
-        <f>SUM(D2:D7)</f>
-        <v>41.247999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="D9" s="4">
+        <f>SUM(D2:D8)</f>
+        <v>41.777999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="4">
         <v>21.95</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <f>B11*C11</f>
+      <c r="D12" s="7">
+        <f>B12*C12</f>
         <v>43.9</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10.85</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <f>B14*C14</f>
-        <v>10.85</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4">
-        <v>8.6199999999999992</v>
+        <v>10.85</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="4">
-        <f>C15*B15</f>
-        <v>8.6199999999999992</v>
+        <f>B15*C15</f>
+        <v>10.85</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4">
-        <v>3.59</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="C16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
         <f>C16*B16</f>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3.59</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17*B17</f>
         <v>7.18</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -717,13 +741,14 @@
     <hyperlink ref="E3" r:id="rId3" display="http://www.google.com/url?q=http%3A%2F%2Fwww.ebay.es%2Fitm%2F1pcs-DC-DC-Buck-Converter-Step-Down-Module-LM2596-Power-Supply-Output-1-23V-30V-%2F161102182049%3Fpt%3DDE_Elektronik_Computer_Haushaltsger%25C3%25A4te_Staubsaugerbeutel_PM%26hash%3Ditem25827036a1%26_uhb%3D1&amp;sa=D&amp;sntz=1&amp;usg=AFQjCNF6DneFqO6UfrDrbfWWdl0_vhZBKQ"/>
     <hyperlink ref="E4" r:id="rId4" display="http://www.ebay.es/itm/Latching-Bistable-Relay-module-5V-Relay-board-for-AVR-PIC-Arduino-from-EU-/171178593872?pt=LH_DefaultDomain_0&amp;hash=item27db0a0e50&amp;_uhb=1"/>
     <hyperlink ref="E7" r:id="rId5" display="http://www.ebay.es/itm/5Pcs-A1302-NEW-Ratiometric-Linear-Hall-Effect-Sensors-Chip-/310884565551?pt=LH_DefaultDomain_0&amp;hash=item48622a022f&amp;_uhb=1"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="E14" r:id="rId7"/>
-    <hyperlink ref="E15" r:id="rId8"/>
-    <hyperlink ref="E16" r:id="rId9"/>
+    <hyperlink ref="E12" r:id="rId6"/>
+    <hyperlink ref="E15" r:id="rId7"/>
+    <hyperlink ref="E16" r:id="rId8"/>
+    <hyperlink ref="E17" r:id="rId9"/>
+    <hyperlink ref="E8" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
